--- a/exel.xlsx
+++ b/exel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23837" windowHeight="11031" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="23837" windowHeight="11477" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="customers" sheetId="5" r:id="rId1"/>
@@ -1534,7 +1534,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -1673,7 +1673,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -1685,10 +1685,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1750,21 +1750,22 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.036036036036" customWidth="1"/>
+    <col min="2" max="2" width="10.8018018018018" customWidth="1"/>
     <col min="3" max="3" width="13.7387387387387" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1772,10 +1773,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -1783,10 +1784,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
@@ -1794,10 +1795,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -1805,10 +1806,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -1826,7 +1827,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -2113,7 +2114,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
